--- a/src/outputs/data_fao_diet.xlsx
+++ b/src/outputs/data_fao_diet.xlsx
@@ -45374,7 +45374,7 @@
       </c>
       <c r="F1731" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45400,7 +45400,7 @@
       </c>
       <c r="F1732" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45426,7 +45426,7 @@
       </c>
       <c r="F1733" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45452,7 +45452,7 @@
       </c>
       <c r="F1734" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45478,7 +45478,7 @@
       </c>
       <c r="F1735" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45504,7 +45504,7 @@
       </c>
       <c r="F1736" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45530,7 +45530,7 @@
       </c>
       <c r="F1737" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45556,7 +45556,7 @@
       </c>
       <c r="F1738" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45582,7 +45582,7 @@
       </c>
       <c r="F1739" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45608,7 +45608,7 @@
       </c>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45634,7 +45634,7 @@
       </c>
       <c r="F1741" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45660,7 +45660,7 @@
       </c>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45686,7 +45686,7 @@
       </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45712,7 +45712,7 @@
       </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45738,7 +45738,7 @@
       </c>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45764,7 +45764,7 @@
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45790,7 +45790,7 @@
       </c>
       <c r="F1747" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45816,7 +45816,7 @@
       </c>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45842,7 +45842,7 @@
       </c>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45868,7 +45868,7 @@
       </c>
       <c r="F1750" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45894,7 +45894,7 @@
       </c>
       <c r="F1751" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45920,7 +45920,7 @@
       </c>
       <c r="F1752" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45946,7 +45946,7 @@
       </c>
       <c r="F1753" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45972,7 +45972,7 @@
       </c>
       <c r="F1754" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -45998,7 +45998,7 @@
       </c>
       <c r="F1755" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46024,7 +46024,7 @@
       </c>
       <c r="F1756" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46050,7 +46050,7 @@
       </c>
       <c r="F1757" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46076,7 +46076,7 @@
       </c>
       <c r="F1758" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46102,7 +46102,7 @@
       </c>
       <c r="F1759" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46128,7 +46128,7 @@
       </c>
       <c r="F1760" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46154,7 +46154,7 @@
       </c>
       <c r="F1761" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46180,7 +46180,7 @@
       </c>
       <c r="F1762" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46206,7 +46206,7 @@
       </c>
       <c r="F1763" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46232,7 +46232,7 @@
       </c>
       <c r="F1764" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46258,7 +46258,7 @@
       </c>
       <c r="F1765" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46284,7 +46284,7 @@
       </c>
       <c r="F1766" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46310,7 +46310,7 @@
       </c>
       <c r="F1767" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46336,7 +46336,7 @@
       </c>
       <c r="F1768" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46362,7 +46362,7 @@
       </c>
       <c r="F1769" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46388,7 +46388,7 @@
       </c>
       <c r="F1770" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46414,7 +46414,7 @@
       </c>
       <c r="F1771" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46440,7 +46440,7 @@
       </c>
       <c r="F1772" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46466,7 +46466,7 @@
       </c>
       <c r="F1773" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46492,7 +46492,7 @@
       </c>
       <c r="F1774" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46518,7 +46518,7 @@
       </c>
       <c r="F1775" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46544,7 +46544,7 @@
       </c>
       <c r="F1776" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46570,7 +46570,7 @@
       </c>
       <c r="F1777" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46596,7 +46596,7 @@
       </c>
       <c r="F1778" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46622,7 +46622,7 @@
       </c>
       <c r="F1779" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46648,7 +46648,7 @@
       </c>
       <c r="F1780" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46674,7 +46674,7 @@
       </c>
       <c r="F1781" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46700,7 +46700,7 @@
       </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46726,7 +46726,7 @@
       </c>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46752,7 +46752,7 @@
       </c>
       <c r="F1784" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46778,7 +46778,7 @@
       </c>
       <c r="F1785" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46804,7 +46804,7 @@
       </c>
       <c r="F1786" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46830,7 +46830,7 @@
       </c>
       <c r="F1787" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46856,7 +46856,7 @@
       </c>
       <c r="F1788" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46882,7 +46882,7 @@
       </c>
       <c r="F1789" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46908,7 +46908,7 @@
       </c>
       <c r="F1790" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46934,7 +46934,7 @@
       </c>
       <c r="F1791" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46960,7 +46960,7 @@
       </c>
       <c r="F1792" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -46986,7 +46986,7 @@
       </c>
       <c r="F1793" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47012,7 +47012,7 @@
       </c>
       <c r="F1794" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47038,7 +47038,7 @@
       </c>
       <c r="F1795" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47064,7 +47064,7 @@
       </c>
       <c r="F1796" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47090,7 +47090,7 @@
       </c>
       <c r="F1797" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47116,7 +47116,7 @@
       </c>
       <c r="F1798" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47142,7 +47142,7 @@
       </c>
       <c r="F1799" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47168,7 +47168,7 @@
       </c>
       <c r="F1800" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47194,7 +47194,7 @@
       </c>
       <c r="F1801" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47220,7 +47220,7 @@
       </c>
       <c r="F1802" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47246,7 +47246,7 @@
       </c>
       <c r="F1803" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47272,7 +47272,7 @@
       </c>
       <c r="F1804" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47298,7 +47298,7 @@
       </c>
       <c r="F1805" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47324,7 +47324,7 @@
       </c>
       <c r="F1806" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47350,7 +47350,7 @@
       </c>
       <c r="F1807" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47376,7 +47376,7 @@
       </c>
       <c r="F1808" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47402,7 +47402,7 @@
       </c>
       <c r="F1809" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47428,7 +47428,7 @@
       </c>
       <c r="F1810" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47454,7 +47454,7 @@
       </c>
       <c r="F1811" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47480,7 +47480,7 @@
       </c>
       <c r="F1812" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47506,7 +47506,7 @@
       </c>
       <c r="F1813" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47532,7 +47532,7 @@
       </c>
       <c r="F1814" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47558,7 +47558,7 @@
       </c>
       <c r="F1815" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47584,7 +47584,7 @@
       </c>
       <c r="F1816" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47610,7 +47610,7 @@
       </c>
       <c r="F1817" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47636,7 +47636,7 @@
       </c>
       <c r="F1818" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47662,7 +47662,7 @@
       </c>
       <c r="F1819" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47688,7 +47688,7 @@
       </c>
       <c r="F1820" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47714,7 +47714,7 @@
       </c>
       <c r="F1821" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47740,7 +47740,7 @@
       </c>
       <c r="F1822" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47766,7 +47766,7 @@
       </c>
       <c r="F1823" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47792,7 +47792,7 @@
       </c>
       <c r="F1824" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47818,7 +47818,7 @@
       </c>
       <c r="F1825" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47844,7 +47844,7 @@
       </c>
       <c r="F1826" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47870,7 +47870,7 @@
       </c>
       <c r="F1827" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47896,7 +47896,7 @@
       </c>
       <c r="F1828" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47922,7 +47922,7 @@
       </c>
       <c r="F1829" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47948,7 +47948,7 @@
       </c>
       <c r="F1830" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -47974,7 +47974,7 @@
       </c>
       <c r="F1831" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48000,7 +48000,7 @@
       </c>
       <c r="F1832" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48026,7 +48026,7 @@
       </c>
       <c r="F1833" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48052,7 +48052,7 @@
       </c>
       <c r="F1834" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48078,7 +48078,7 @@
       </c>
       <c r="F1835" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48104,7 +48104,7 @@
       </c>
       <c r="F1836" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48130,7 +48130,7 @@
       </c>
       <c r="F1837" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48156,7 +48156,7 @@
       </c>
       <c r="F1838" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48182,7 +48182,7 @@
       </c>
       <c r="F1839" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48208,7 +48208,7 @@
       </c>
       <c r="F1840" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48234,7 +48234,7 @@
       </c>
       <c r="F1841" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48260,7 +48260,7 @@
       </c>
       <c r="F1842" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48286,7 +48286,7 @@
       </c>
       <c r="F1843" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48312,7 +48312,7 @@
       </c>
       <c r="F1844" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48338,7 +48338,7 @@
       </c>
       <c r="F1845" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48364,7 +48364,7 @@
       </c>
       <c r="F1846" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48390,7 +48390,7 @@
       </c>
       <c r="F1847" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48416,7 +48416,7 @@
       </c>
       <c r="F1848" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48442,7 +48442,7 @@
       </c>
       <c r="F1849" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48468,7 +48468,7 @@
       </c>
       <c r="F1850" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48494,7 +48494,7 @@
       </c>
       <c r="F1851" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48520,7 +48520,7 @@
       </c>
       <c r="F1852" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48546,7 +48546,7 @@
       </c>
       <c r="F1853" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48572,7 +48572,7 @@
       </c>
       <c r="F1854" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48598,7 +48598,7 @@
       </c>
       <c r="F1855" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48624,7 +48624,7 @@
       </c>
       <c r="F1856" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48650,7 +48650,7 @@
       </c>
       <c r="F1857" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48676,7 +48676,7 @@
       </c>
       <c r="F1858" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48702,7 +48702,7 @@
       </c>
       <c r="F1859" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48728,7 +48728,7 @@
       </c>
       <c r="F1860" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48754,7 +48754,7 @@
       </c>
       <c r="F1861" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48780,7 +48780,7 @@
       </c>
       <c r="F1862" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48806,7 +48806,7 @@
       </c>
       <c r="F1863" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48832,7 +48832,7 @@
       </c>
       <c r="F1864" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48858,7 +48858,7 @@
       </c>
       <c r="F1865" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48884,7 +48884,7 @@
       </c>
       <c r="F1866" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48910,7 +48910,7 @@
       </c>
       <c r="F1867" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48936,7 +48936,7 @@
       </c>
       <c r="F1868" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48962,7 +48962,7 @@
       </c>
       <c r="F1869" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -48988,7 +48988,7 @@
       </c>
       <c r="F1870" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49014,7 +49014,7 @@
       </c>
       <c r="F1871" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49040,7 +49040,7 @@
       </c>
       <c r="F1872" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49066,7 +49066,7 @@
       </c>
       <c r="F1873" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49092,7 +49092,7 @@
       </c>
       <c r="F1874" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49118,7 +49118,7 @@
       </c>
       <c r="F1875" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49144,7 +49144,7 @@
       </c>
       <c r="F1876" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49170,7 +49170,7 @@
       </c>
       <c r="F1877" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49196,7 +49196,7 @@
       </c>
       <c r="F1878" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49222,7 +49222,7 @@
       </c>
       <c r="F1879" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49248,7 +49248,7 @@
       </c>
       <c r="F1880" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49274,7 +49274,7 @@
       </c>
       <c r="F1881" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49300,7 +49300,7 @@
       </c>
       <c r="F1882" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49326,7 +49326,7 @@
       </c>
       <c r="F1883" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49352,7 +49352,7 @@
       </c>
       <c r="F1884" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49378,7 +49378,7 @@
       </c>
       <c r="F1885" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49404,7 +49404,7 @@
       </c>
       <c r="F1886" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49430,7 +49430,7 @@
       </c>
       <c r="F1887" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49456,7 +49456,7 @@
       </c>
       <c r="F1888" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49482,7 +49482,7 @@
       </c>
       <c r="F1889" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49508,7 +49508,7 @@
       </c>
       <c r="F1890" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49534,7 +49534,7 @@
       </c>
       <c r="F1891" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49560,7 +49560,7 @@
       </c>
       <c r="F1892" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49586,7 +49586,7 @@
       </c>
       <c r="F1893" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49612,7 +49612,7 @@
       </c>
       <c r="F1894" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49638,7 +49638,7 @@
       </c>
       <c r="F1895" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49664,7 +49664,7 @@
       </c>
       <c r="F1896" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49690,7 +49690,7 @@
       </c>
       <c r="F1897" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49716,7 +49716,7 @@
       </c>
       <c r="F1898" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49742,7 +49742,7 @@
       </c>
       <c r="F1899" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49768,7 +49768,7 @@
       </c>
       <c r="F1900" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49794,7 +49794,7 @@
       </c>
       <c r="F1901" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49820,7 +49820,7 @@
       </c>
       <c r="F1902" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49846,7 +49846,7 @@
       </c>
       <c r="F1903" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49872,7 +49872,7 @@
       </c>
       <c r="F1904" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49898,7 +49898,7 @@
       </c>
       <c r="F1905" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49924,7 +49924,7 @@
       </c>
       <c r="F1906" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49950,7 +49950,7 @@
       </c>
       <c r="F1907" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -49976,7 +49976,7 @@
       </c>
       <c r="F1908" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50002,7 +50002,7 @@
       </c>
       <c r="F1909" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50028,7 +50028,7 @@
       </c>
       <c r="F1910" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50054,7 +50054,7 @@
       </c>
       <c r="F1911" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50080,7 +50080,7 @@
       </c>
       <c r="F1912" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50106,7 +50106,7 @@
       </c>
       <c r="F1913" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50132,7 +50132,7 @@
       </c>
       <c r="F1914" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50158,7 +50158,7 @@
       </c>
       <c r="F1915" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50184,7 +50184,7 @@
       </c>
       <c r="F1916" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50210,7 +50210,7 @@
       </c>
       <c r="F1917" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50236,7 +50236,7 @@
       </c>
       <c r="F1918" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50262,7 +50262,7 @@
       </c>
       <c r="F1919" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50288,7 +50288,7 @@
       </c>
       <c r="F1920" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50314,7 +50314,7 @@
       </c>
       <c r="F1921" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50340,7 +50340,7 @@
       </c>
       <c r="F1922" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50366,7 +50366,7 @@
       </c>
       <c r="F1923" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50392,7 +50392,7 @@
       </c>
       <c r="F1924" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50418,7 +50418,7 @@
       </c>
       <c r="F1925" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50444,7 +50444,7 @@
       </c>
       <c r="F1926" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50470,7 +50470,7 @@
       </c>
       <c r="F1927" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50496,7 +50496,7 @@
       </c>
       <c r="F1928" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50522,7 +50522,7 @@
       </c>
       <c r="F1929" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50548,7 +50548,7 @@
       </c>
       <c r="F1930" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50574,7 +50574,7 @@
       </c>
       <c r="F1931" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50600,7 +50600,7 @@
       </c>
       <c r="F1932" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50626,7 +50626,7 @@
       </c>
       <c r="F1933" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50652,7 +50652,7 @@
       </c>
       <c r="F1934" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50678,7 +50678,7 @@
       </c>
       <c r="F1935" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50704,7 +50704,7 @@
       </c>
       <c r="F1936" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50730,7 +50730,7 @@
       </c>
       <c r="F1937" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50756,7 +50756,7 @@
       </c>
       <c r="F1938" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50782,7 +50782,7 @@
       </c>
       <c r="F1939" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50808,7 +50808,7 @@
       </c>
       <c r="F1940" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50834,7 +50834,7 @@
       </c>
       <c r="F1941" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50860,7 +50860,7 @@
       </c>
       <c r="F1942" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50886,7 +50886,7 @@
       </c>
       <c r="F1943" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50912,7 +50912,7 @@
       </c>
       <c r="F1944" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50938,7 +50938,7 @@
       </c>
       <c r="F1945" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50964,7 +50964,7 @@
       </c>
       <c r="F1946" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
@@ -50990,7 +50990,7 @@
       </c>
       <c r="F1947" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
     </row>
